--- a/analyses/uwpr-apr2017/unipept-lca/231-peaks97-db-nomods-lca.xlsx
+++ b/analyses/uwpr-apr2017/unipept-lca/231-peaks97-db-nomods-lca.xlsx
@@ -8,23 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-apr2017/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B8E3F-2141-2049-8F62-B1C47CD53DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F2D1B-B35E-884F-B562-3277ED48D605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="231-peaks97-db-nomods-lca" sheetId="1" r:id="rId1"/>
     <sheet name="fungi" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fungi!$A$1:$AH$824</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11574" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11825" uniqueCount="2925">
   <si>
     <t>peptide</t>
   </si>
@@ -9642,7 +9653,7 @@
   <dimension ref="A1:AH824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AH824"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28665,8 +28676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB44364-B30F-B746-846F-0C7E20E06014}">
   <dimension ref="A1:AH824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47687,5 +47698,817 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D1F2F4-555C-5643-A16D-126E84166D67}">
+  <dimension ref="A1:AH19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K2" t="s">
+        <v>555</v>
+      </c>
+      <c r="N2" t="s">
+        <v>556</v>
+      </c>
+      <c r="S2" t="s">
+        <v>557</v>
+      </c>
+      <c r="W2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G4" t="s">
+        <v>552</v>
+      </c>
+      <c r="H4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="J5" t="s">
+        <v>952</v>
+      </c>
+      <c r="K5" t="s">
+        <v>953</v>
+      </c>
+      <c r="N5" t="s">
+        <v>954</v>
+      </c>
+      <c r="S5" t="s">
+        <v>955</v>
+      </c>
+      <c r="W5" t="s">
+        <v>956</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="J6" t="s">
+        <v>952</v>
+      </c>
+      <c r="K6" t="s">
+        <v>953</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H7" t="s">
+        <v>553</v>
+      </c>
+      <c r="J7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K7" t="s">
+        <v>555</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E10" t="s">
+        <v>551</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1614</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" t="s">
+        <v>551</v>
+      </c>
+      <c r="G11" t="s">
+        <v>552</v>
+      </c>
+      <c r="H11" t="s">
+        <v>553</v>
+      </c>
+      <c r="J11" t="s">
+        <v>952</v>
+      </c>
+      <c r="K11" t="s">
+        <v>953</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2107</v>
+      </c>
+      <c r="S13" t="s">
+        <v>2108</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2139</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2140</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" t="s">
+        <v>551</v>
+      </c>
+      <c r="G15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" t="s">
+        <v>551</v>
+      </c>
+      <c r="G16" t="s">
+        <v>552</v>
+      </c>
+      <c r="H16" t="s">
+        <v>553</v>
+      </c>
+      <c r="J16" t="s">
+        <v>952</v>
+      </c>
+      <c r="K16" t="s">
+        <v>953</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1963</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1964</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" t="s">
+        <v>552</v>
+      </c>
+      <c r="H17" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" t="s">
+        <v>551</v>
+      </c>
+      <c r="G18" t="s">
+        <v>552</v>
+      </c>
+      <c r="H18" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" t="s">
+        <v>551</v>
+      </c>
+      <c r="G19" t="s">
+        <v>552</v>
+      </c>
+      <c r="H19" t="s">
+        <v>553</v>
+      </c>
+      <c r="J19" t="s">
+        <v>554</v>
+      </c>
+      <c r="K19" t="s">
+        <v>555</v>
+      </c>
+      <c r="N19" t="s">
+        <v>556</v>
+      </c>
+      <c r="S19" t="s">
+        <v>557</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2774</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2773</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>2775</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>